--- a/results/LTR-2.freqs.xlsx
+++ b/results/LTR-2.freqs.xlsx
@@ -465,43 +465,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.00608519269776876</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="C2">
-        <v>0.979716024340771</v>
+        <v>0.975903614457831</v>
       </c>
       <c r="D2">
-        <v>0.00405679513184584</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="E2">
-        <v>0.00202839756592292</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0162271805273834</v>
+        <v>0.0481927710843374</v>
       </c>
       <c r="G2">
-        <v>0.0101419878296146</v>
+        <v>0.0240963855421687</v>
       </c>
       <c r="H2">
-        <v>0.0121703853955375</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="I2">
-        <v>0.971602434077079</v>
+        <v>0.975903614457831</v>
       </c>
       <c r="J2">
-        <v>0.0202839756592292</v>
+        <v>0.036144578313253</v>
       </c>
       <c r="K2">
-        <v>0.947261663286004</v>
+        <v>0.975903614457831</v>
       </c>
       <c r="L2">
-        <v>0.961460446247465</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.00202839756592292</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="N2">
-        <v>0.00608519269776876</v>
+        <v>0.0240963855421687</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -510,28 +510,28 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.995943204868154</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0.00405679513184584</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.886409736308316</v>
+        <v>0.939759036144578</v>
       </c>
       <c r="T2">
-        <v>0.0567951318458418</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0689655172413793</v>
+        <v>0.0240963855421687</v>
       </c>
       <c r="V2">
-        <v>0.987829614604463</v>
+        <v>0.987951807228916</v>
       </c>
       <c r="W2">
-        <v>0.00811359026369168</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="X2">
-        <v>0.00202839756592292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0121703853955375</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="C3">
-        <v>0.00202839756592292</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0223123732251521</v>
+        <v>0.036144578313253</v>
       </c>
       <c r="E3">
-        <v>0.00608519269776876</v>
+        <v>0.0240963855421687</v>
       </c>
       <c r="F3">
-        <v>0.00405679513184584</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.975659229208925</v>
+        <v>0.975903614457831</v>
       </c>
       <c r="I3">
-        <v>0.00608519269776876</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0162271805273834</v>
+        <v>0.0240963855421687</v>
       </c>
       <c r="K3">
-        <v>0.00405679513184584</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="L3">
-        <v>0.00202839756592292</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.941176470588235</v>
+        <v>0.891566265060241</v>
       </c>
       <c r="N3">
-        <v>0.00811359026369168</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.993914807302231</v>
+        <v>0.987951807228916</v>
       </c>
       <c r="Q3">
-        <v>0.00405679513184584</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.993914807302231</v>
+        <v>0.987951807228916</v>
       </c>
       <c r="S3">
-        <v>0.0993914807302231</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="T3">
-        <v>0.935091277890467</v>
+        <v>0.975903614457831</v>
       </c>
       <c r="U3">
-        <v>0.920892494929006</v>
+        <v>0.963855421686747</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.00202839756592292</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.00405679513184584</v>
+        <v>0.0120481927710843</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.979716024340771</v>
+        <v>0.975903614457831</v>
       </c>
       <c r="C4">
-        <v>0.00405679513184584</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="D4">
-        <v>0.0121703853955375</v>
+        <v>0.0240963855421687</v>
       </c>
       <c r="E4">
-        <v>0.00608519269776876</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="F4">
-        <v>0.977687626774848</v>
+        <v>0.939759036144578</v>
       </c>
       <c r="G4">
-        <v>0.987829614604463</v>
+        <v>0.975903614457831</v>
       </c>
       <c r="H4">
-        <v>0.00811359026369168</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="I4">
-        <v>0.00608519269776876</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.955375253549696</v>
+        <v>0.927710843373494</v>
       </c>
       <c r="K4">
-        <v>0.00405679513184584</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0344827586206897</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.00202839756592292</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.00202839756592292</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.00202839756592292</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.00202839756592292</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="S4">
-        <v>0.0101419878296146</v>
+        <v>0.0481927710843374</v>
       </c>
       <c r="T4">
-        <v>0.00202839756592292</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0101419878296146</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="W4">
-        <v>0.98580121703854</v>
+        <v>0.975903614457831</v>
       </c>
       <c r="X4">
-        <v>0.987829614604463</v>
+        <v>0.975903614457831</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,49 +687,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00202839756592292</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0141987829614604</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="D5">
-        <v>0.961460446247465</v>
+        <v>0.927710843373494</v>
       </c>
       <c r="E5">
-        <v>0.98580121703854</v>
+        <v>0.963855421686747</v>
       </c>
       <c r="F5">
-        <v>0.00202839756592292</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.00202839756592292</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.00405679513184584</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0162271805273834</v>
+        <v>0.0240963855421687</v>
       </c>
       <c r="J5">
-        <v>0.00811359026369168</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="K5">
-        <v>0.0425963488843813</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0527383367139959</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="N5">
-        <v>0.983772819472617</v>
+        <v>0.963855421686747</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.00405679513184584</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.00405679513184584</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.00405679513184584</v>
+        <v>0.0240963855421687</v>
       </c>
       <c r="U5">
-        <v>0.0101419878296146</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="V5">
-        <v>0.00202839756592292</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.00405679513184584</v>
+        <v>0.0120481927710843</v>
       </c>
       <c r="X5">
-        <v>0.00608519269776876</v>
+        <v>0.0120481927710843</v>
       </c>
     </row>
   </sheetData>
